--- a/data/trans_camb/P2A_ner_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.05795441489992469</v>
+        <v>-0.09088042943116453</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1295147173998091</v>
+        <v>0.1289782641941251</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3721576938202262</v>
+        <v>0.3795276210875675</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.51603685428003</v>
+        <v>-2.048891720583905</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.97705623691576</v>
+        <v>4.202404794522298</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.814759418385846</v>
+        <v>-2.921798778769489</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.4297106229340233</v>
+        <v>-0.4895451614039393</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.77512607767175</v>
+        <v>2.898177700613886</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.7137825940040206</v>
+        <v>-0.630127337647711</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.66185876456001</v>
+        <v>3.449157315411172</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.779100691147926</v>
+        <v>3.759886212952575</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.085347971258179</v>
+        <v>4.218893847236973</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.325669485870848</v>
+        <v>2.376018943902583</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.01524073937442</v>
+        <v>10.34288052755259</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.313693889587471</v>
+        <v>1.102592356043007</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.380573028404389</v>
+        <v>2.249052786930049</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.476805738901112</v>
+        <v>6.44970355487022</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.068646744159049</v>
+        <v>2.285743381656048</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0704050968086696</v>
+        <v>-0.08473944095262767</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.004719348443381641</v>
+        <v>-0.003694429570618819</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.094873700667701</v>
+        <v>0.005880321272658891</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4010767983096145</v>
+        <v>-0.3618661041189175</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6339078766931319</v>
+        <v>0.7092181098982135</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4656720777818529</v>
+        <v>-0.4794116264819703</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.12227238711097</v>
+        <v>-0.135824591272743</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6617669202010663</v>
+        <v>0.6877380133227504</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1980211778193863</v>
+        <v>-0.1653659373822658</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.575723915938368</v>
+        <v>2.537866049542027</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.631155246375208</v>
+        <v>2.796425526563787</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.346724793741213</v>
+        <v>3.160309970570824</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6253330122248355</v>
+        <v>0.6483381205505443</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.795848200626923</v>
+        <v>2.833553012280842</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3604708904722241</v>
+        <v>0.3076402776152808</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8368979630679731</v>
+        <v>0.7889894984890761</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.343279093298417</v>
+        <v>2.308575949432626</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6831274471404609</v>
+        <v>0.8062908228913698</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>4.619522981078468</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.4776014637083721</v>
+        <v>0.4776014637083714</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.09807208036650833</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.390004268074964</v>
+        <v>-2.408571125023786</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.657145819209668</v>
+        <v>-0.4798150033882712</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.891169657073585</v>
+        <v>-1.92136794828236</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.471155455310671</v>
+        <v>-1.227747052043928</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.469793315283105</v>
+        <v>2.358745128377091</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.51160277280493</v>
+        <v>-1.405976008400176</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.31427831517305</v>
+        <v>-1.269176498695232</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.357482635506962</v>
+        <v>1.525611188481792</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.054185455389107</v>
+        <v>-1.215483294144556</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5135666882026539</v>
+        <v>0.6505024413442504</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.706020748249681</v>
+        <v>2.711958389263898</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.205675805371071</v>
+        <v>1.314543599057245</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.829821515608567</v>
+        <v>2.603694267674885</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.180614977296909</v>
+        <v>7.086596769499059</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.233163812448249</v>
+        <v>2.201285417177881</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.273608699929776</v>
+        <v>1.186882072505149</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.199389366383877</v>
+        <v>4.397315119979203</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.286645829844224</v>
+        <v>1.223148450559959</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.9958844721987522</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1029621204515628</v>
+        <v>0.1029621204515627</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.02540394436368808</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6013385341406591</v>
+        <v>-0.6246709216824999</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.197165516557018</v>
+        <v>-0.1409376588993251</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5080549847201957</v>
+        <v>-0.5105748797595343</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2495712000666334</v>
+        <v>-0.2247027840365301</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4174652727918176</v>
+        <v>0.3975792025003434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2573567260052868</v>
+        <v>-0.2486025358835252</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2904913028709659</v>
+        <v>-0.2852856864987734</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2814481653044892</v>
+        <v>0.3382871475743224</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2417568313983193</v>
+        <v>-0.2526242043684189</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2870808117220138</v>
+        <v>0.284171136599163</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.152341076157407</v>
+        <v>1.184653301651897</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5518021799893504</v>
+        <v>0.5923510130244751</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7825318685084379</v>
+        <v>0.7231879013620902</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.980664448183087</v>
+        <v>1.881067353788695</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6620216101874987</v>
+        <v>0.5991851181902622</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4025802475495258</v>
+        <v>0.3588727629698824</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.304910856569604</v>
+        <v>1.3671061423751</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4093722886192675</v>
+        <v>0.3845022480524665</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.093716300939766</v>
+        <v>-3.169829787700872</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.121302781289777</v>
+        <v>-1.165233479198583</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.010035169782838</v>
+        <v>-2.003543899787522</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.355145930738955</v>
+        <v>-2.379105766080351</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.072450421488823</v>
+        <v>3.049603058511792</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.714192081751398</v>
+        <v>-1.541099636411385</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.247908836193714</v>
+        <v>-2.076562916082745</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.566231072463263</v>
+        <v>1.446680444116313</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.32816325825711</v>
+        <v>-1.339660688253311</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5092582601460725</v>
+        <v>0.3975075589234559</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.7260799913365</v>
+        <v>2.674090643223073</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.893024352283361</v>
+        <v>1.796737520007908</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.054050669564613</v>
+        <v>2.000453856060884</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.326691609675668</v>
+        <v>8.41579543822801</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.729071081743336</v>
+        <v>2.599362652636649</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5477044261817496</v>
+        <v>0.7194635188909088</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.027287410880243</v>
+        <v>4.949681034896384</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.659333941145185</v>
+        <v>1.708307537085544</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6553259419982991</v>
+        <v>-0.676710454608064</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2670115972016218</v>
+        <v>-0.2577385517055937</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4419293669648235</v>
+        <v>-0.4632843314807564</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3845676965574131</v>
+        <v>-0.3804310097152467</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.461251388281046</v>
+        <v>0.4471110486008066</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2906334910243551</v>
+        <v>-0.2735910688704747</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4581924873541445</v>
+        <v>-0.426368505737527</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3044567935263419</v>
+        <v>0.2705169512499667</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2708024516805808</v>
+        <v>-0.2725698144342005</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2601878061809241</v>
+        <v>0.1762218495711017</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.079784025198641</v>
+        <v>1.069093455760916</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6841728137492175</v>
+        <v>0.7236118968252784</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5801240200806975</v>
+        <v>0.5852454416035821</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.251115797989883</v>
+        <v>2.2326685687595</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7378874202732193</v>
+        <v>0.7746945440859613</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1549608846044366</v>
+        <v>0.2237108129273585</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.418422463645685</v>
+        <v>1.428871817986674</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4466743977300679</v>
+        <v>0.5133152872209391</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.003250187722088378</v>
+        <v>-0.07295369467317904</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.27890319932257</v>
+        <v>1.334787796012958</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.3218268597689857</v>
+        <v>-0.2176932502807339</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.079871514818597</v>
+        <v>-1.282788514791297</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.070960784944532</v>
+        <v>6.040842543347776</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.295290433971927</v>
+        <v>-1.320805250095082</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.2358020795158521</v>
+        <v>-0.1682750774679846</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.241816604548529</v>
+        <v>4.287773325606035</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.3553079656230787</v>
+        <v>-0.3581170004323249</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.446481958962699</v>
+        <v>3.548735599823909</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.810599787143798</v>
+        <v>5.021387547934152</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.035228205457395</v>
+        <v>2.944526952193631</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.504719585993168</v>
+        <v>2.453992455908752</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.13060456814391</v>
+        <v>11.13341584148203</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.928631528187259</v>
+        <v>2.034661869254862</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.403767828027874</v>
+        <v>2.412554283246912</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.380189958913317</v>
+        <v>7.484218586902043</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.001195831661633</v>
+        <v>2.004770653505935</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.03223910062703369</v>
+        <v>-0.04683362698931805</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3779581332416317</v>
+        <v>0.3742036385318742</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.125351869491762</v>
+        <v>-0.0965064081111139</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2231779671980239</v>
+        <v>-0.2610069136902158</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1.099673189984195</v>
+        <v>1.126973211672311</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2542045158240651</v>
+        <v>-0.2475691302404241</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.05581838160425769</v>
+        <v>-0.0637803610171629</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1.072526791302796</v>
+        <v>1.042361622882087</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.0912750026312824</v>
+        <v>-0.08891745654989139</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.812049050015237</v>
+        <v>1.885635720656638</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.594050922833965</v>
+        <v>2.746480912610453</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.638120675916933</v>
+        <v>1.57406232612445</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7507720664367756</v>
+        <v>0.7187219989096013</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.297154874132999</v>
+        <v>3.382200869806172</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5710520179048879</v>
+        <v>0.628978106194601</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8561235152645164</v>
+        <v>0.8700015207038226</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.602080140938267</v>
+        <v>2.710974182660306</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7091256602409498</v>
+        <v>0.7306072862341993</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>6.439844638545542</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.2239365874139788</v>
+        <v>0.2239365874139775</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.3255643813082416</v>
@@ -1520,7 +1520,7 @@
         <v>4.145326432242205</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.4587173325894429</v>
+        <v>0.4587173325894416</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.5445034809827685</v>
+        <v>-0.5072651337653249</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8378823912030767</v>
+        <v>0.8215506143492892</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.1786283690903357</v>
+        <v>-0.3075234245018515</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.7367420265130833</v>
+        <v>-0.7925683417716503</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.045980216605399</v>
+        <v>5.018091394983762</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.6948383465770495</v>
+        <v>-0.7752794907054066</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.301845936772112</v>
+        <v>-0.3720695615525995</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.2977901535758</v>
+        <v>3.315538336417357</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.1801024535833978</v>
+        <v>-0.1552849054390638</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.125198831102298</v>
+        <v>1.174640226677911</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.719068378410102</v>
+        <v>2.673064391747525</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.557709117980042</v>
+        <v>1.510892738190347</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.397978241793708</v>
+        <v>1.326420166755643</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.730892199456756</v>
+        <v>7.724055505869273</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.25293669147138</v>
+        <v>1.138762504562614</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.002843280249343</v>
+        <v>0.9843989167078251</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.875319390145313</v>
+        <v>4.967597714158741</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.118122643859485</v>
+        <v>1.122158517493586</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>1.404379461075024</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04883533091233899</v>
+        <v>0.04883533091233869</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.08812964443907916</v>
@@ -1625,7 +1625,7 @@
         <v>1.122131797985402</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1241738892218521</v>
+        <v>0.1241738892218518</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1754298117269249</v>
+        <v>-0.1598136428050383</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2427559845169655</v>
+        <v>0.2513603549885375</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.0587804672053685</v>
+        <v>-0.1009974059301566</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1464221645009168</v>
+        <v>-0.1530526859361709</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9586252732574376</v>
+        <v>0.9377436041475495</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1355086498911828</v>
+        <v>-0.1475146574880438</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.07573100607410137</v>
+        <v>-0.09325603739309407</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.8091715599091197</v>
+        <v>0.8078733445737201</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.04536009932744883</v>
+        <v>-0.04744896238022214</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4605201302229215</v>
+        <v>0.512412896483522</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.112977370502521</v>
+        <v>1.121538656825848</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6615614141437732</v>
+        <v>0.6099625413966759</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3336973488029777</v>
+        <v>0.3156747253382221</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.886547868400277</v>
+        <v>1.893541277352041</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3151961834632187</v>
+        <v>0.2839029186532638</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3009341614227947</v>
+        <v>0.290992171414341</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.43012229543678</v>
+        <v>1.471144686479782</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3342659829077765</v>
+        <v>0.3255567619020693</v>
       </c>
     </row>
     <row r="34">
